--- a/datasets/rm_23_24.xlsx
+++ b/datasets/rm_23_24.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fryep\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\franciscayepsen\s2_25\mineria_datos\proyecto-mineria-de-datos\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="246">
   <si>
-    <t>▼</t>
-  </si>
-  <si>
     <t>Nation</t>
   </si>
   <si>
@@ -762,6 +759,9 @@
   </si>
   <si>
     <t>1.61</t>
+  </si>
+  <si>
+    <t>Player</t>
   </si>
 </sst>
 </file>
@@ -1386,125 +1386,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AF1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AH1" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>21</v>
@@ -1543,18 +1541,18 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>32</v>
@@ -1569,7 +1567,7 @@
         <v>1419</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -1596,16 +1594,16 @@
         <v>0</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="U3" s="3">
         <v>28</v>
@@ -1617,48 +1615,48 @@
         <v>160</v>
       </c>
       <c r="X3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="AH3" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>25</v>
@@ -1673,7 +1671,7 @@
         <v>2904</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -1700,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="U4" s="3">
         <v>104</v>
@@ -1721,48 +1719,48 @@
         <v>102</v>
       </c>
       <c r="X4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="AH4" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>19</v>
@@ -1801,18 +1799,18 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D6" s="2">
         <v>23</v>
@@ -1827,7 +1825,7 @@
         <v>1987</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="3">
         <v>3</v>
@@ -1854,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="Q6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="U6" s="3">
         <v>28</v>
@@ -1875,48 +1873,48 @@
         <v>15</v>
       </c>
       <c r="X6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Z6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AE6" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="AF6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AH6" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>30</v>
@@ -1931,7 +1929,7 @@
         <v>2709</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -1958,16 +1956,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="U7" s="3">
         <v>17</v>
@@ -1979,48 +1977,48 @@
         <v>1</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Z7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AF7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH7" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D8" s="2">
         <v>22</v>
@@ -2035,7 +2033,7 @@
         <v>238</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="3">
         <v>10</v>
@@ -2062,16 +2060,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="U8" s="3">
         <v>159</v>
@@ -2083,48 +2081,48 @@
         <v>301</v>
       </c>
       <c r="X8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AB8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AB8" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="AC8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AE8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AF8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AG8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AG8" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="AH8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2">
         <v>19</v>
@@ -2139,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -2166,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -2187,48 +2185,48 @@
         <v>0</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>18</v>
@@ -2267,18 +2265,18 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>18</v>
@@ -2317,18 +2315,18 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D12" s="2">
         <v>19</v>
@@ -2367,18 +2365,18 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D13" s="2">
         <v>18</v>
@@ -2393,43 +2391,43 @@
         <v>23</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="R13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U13" s="3">
         <v>3</v>
@@ -2441,48 +2439,48 @@
         <v>2</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>27</v>
@@ -2521,18 +2519,18 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>33</v>
@@ -2547,7 +2545,7 @@
         <v>1746</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -2574,16 +2572,16 @@
         <v>2</v>
       </c>
       <c r="Q15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="U15" s="3">
         <v>13</v>
@@ -2595,48 +2593,48 @@
         <v>9</v>
       </c>
       <c r="X15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AF15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AB15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG15" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AH15" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>37</v>
@@ -2651,7 +2649,7 @@
         <v>1688</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
@@ -2678,16 +2676,16 @@
         <v>0</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="T16" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="U16" s="3">
         <v>53</v>
@@ -2699,48 +2697,48 @@
         <v>85</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Z16" s="4" t="s">
+      <c r="AA16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AA16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AE16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AE16" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="AF16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH16" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>25</v>
@@ -2755,7 +2753,7 @@
         <v>496</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -2782,16 +2780,16 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U17" s="3">
         <v>7</v>
@@ -2803,48 +2801,48 @@
         <v>2</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH17" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>28</v>
@@ -2859,7 +2857,7 @@
         <v>172</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -2886,16 +2884,16 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U18" s="3">
         <v>19</v>
@@ -2907,48 +2905,48 @@
         <v>96</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH18" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>19</v>
@@ -2963,7 +2961,7 @@
         <v>18</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
@@ -2990,16 +2988,16 @@
         <v>0</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U19" s="3">
         <v>0</v>
@@ -3011,48 +3009,48 @@
         <v>1</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH19" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2">
         <v>24</v>
@@ -3067,7 +3065,7 @@
         <v>189</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -3094,16 +3092,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -3115,48 +3113,48 @@
         <v>0</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH20" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2">
         <v>21</v>
@@ -3195,18 +3193,18 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>33</v>
@@ -3221,7 +3219,7 @@
         <v>2124</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
@@ -3248,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="S22" s="4" t="s">
+      <c r="T22" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="U22" s="3">
         <v>32</v>
@@ -3269,48 +3267,48 @@
         <v>29</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Z22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="AE22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH22" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2">
         <v>23</v>
@@ -3325,7 +3323,7 @@
         <v>1864</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I23" s="3">
         <v>15</v>
@@ -3352,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="S23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="U23" s="3">
         <v>137</v>
@@ -3373,48 +3371,48 @@
         <v>277</v>
       </c>
       <c r="X23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z23" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Y23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z23" s="4" t="s">
+      <c r="AA23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AA23" s="4" t="s">
+      <c r="AB23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AB23" s="4" t="s">
+      <c r="AC23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AC23" s="3" t="s">
+      <c r="AD23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE23" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AD23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE23" s="4" t="s">
+      <c r="AF23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG23" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AF23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG23" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="AH23" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2">
         <v>33</v>
@@ -3429,7 +3427,7 @@
         <v>1687</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I24" s="3">
         <v>10</v>
@@ -3456,16 +3454,16 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="R24" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="S24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U24" s="3">
         <v>15</v>
@@ -3477,48 +3475,48 @@
         <v>98</v>
       </c>
       <c r="X24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z24" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Y24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z24" s="4" t="s">
+      <c r="AA24" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC24" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AA24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB24" s="4" t="s">
+      <c r="AD24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG24" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG24" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="AH24" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="D25" s="2">
         <v>18</v>
@@ -3533,7 +3531,7 @@
         <v>377</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I25" s="3">
         <v>6</v>
@@ -3560,16 +3558,16 @@
         <v>0</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U25" s="3">
         <v>16</v>
@@ -3581,48 +3579,48 @@
         <v>25</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH25" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D26" s="6">
         <v>24</v>
@@ -3661,18 +3659,18 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="2">
         <v>19</v>
@@ -3687,7 +3685,7 @@
         <v>19</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -3714,16 +3712,16 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U27" s="3">
         <v>1</v>
@@ -3735,48 +3733,48 @@
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG27" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH27" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>23</v>
@@ -3791,7 +3789,7 @@
         <v>1398</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
@@ -3818,16 +3816,16 @@
         <v>0</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T28" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="U28" s="3">
         <v>53</v>
@@ -3839,48 +3837,48 @@
         <v>139</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH28" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="2">
         <v>18</v>
@@ -3919,18 +3917,18 @@
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
       <c r="AH29" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D30" s="2">
         <v>23</v>
@@ -3945,7 +3943,7 @@
         <v>1545</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I30" s="3">
         <v>8</v>
@@ -3972,16 +3970,16 @@
         <v>0</v>
       </c>
       <c r="Q30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="S30" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="R30" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="S30" s="4" t="s">
+      <c r="T30" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="U30" s="3">
         <v>76</v>
@@ -3993,48 +3991,48 @@
         <v>166</v>
       </c>
       <c r="X30" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y30" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="Y30" s="4" t="s">
+      <c r="Z30" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="Z30" s="4" t="s">
+      <c r="AA30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC30" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AA30" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB30" s="4" t="s">
+      <c r="AD30" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF30" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AC30" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD30" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE30" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF30" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="AG30" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH30" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="2">
         <v>31</v>
@@ -4049,7 +4047,7 @@
         <v>332</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
@@ -4076,16 +4074,16 @@
         <v>0</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U31" s="3">
         <v>0</v>
@@ -4097,48 +4095,48 @@
         <v>0</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG31" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH31" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="2">
         <v>26</v>
@@ -4153,7 +4151,7 @@
         <v>598</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -4180,16 +4178,16 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U32" s="3">
         <v>16</v>
@@ -4201,48 +4199,48 @@
         <v>23</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG32" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH32" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>31</v>
@@ -4257,7 +4255,7 @@
         <v>2171</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I33" s="3">
         <v>4</v>
@@ -4284,16 +4282,16 @@
         <v>1</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U33" s="3">
         <v>30</v>
@@ -4305,48 +4303,48 @@
         <v>168</v>
       </c>
       <c r="X33" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y33" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="Y33" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="Z33" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AE33" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="AF33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH33" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>21</v>
@@ -4385,18 +4383,18 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="2">
         <v>21</v>
@@ -4435,18 +4433,18 @@
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="2">
         <v>20</v>
@@ -4461,7 +4459,7 @@
         <v>1817</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
@@ -4488,16 +4486,16 @@
         <v>0</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U36" s="3">
         <v>49</v>
@@ -4509,48 +4507,48 @@
         <v>31</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC36" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD36" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG36" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH36" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>20</v>
@@ -4565,7 +4563,7 @@
         <v>2315</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I37" s="3">
         <v>19</v>
@@ -4592,16 +4590,16 @@
         <v>1</v>
       </c>
       <c r="Q37" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R37" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="R37" s="4" t="s">
+      <c r="S37" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="S37" s="4" t="s">
+      <c r="T37" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="U37" s="3">
         <v>85</v>
@@ -4613,48 +4611,48 @@
         <v>177</v>
       </c>
       <c r="X37" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y37" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="Y37" s="4" t="s">
+      <c r="Z37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA37" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="Z37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA37" s="4" t="s">
+      <c r="AB37" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="AB37" s="4" t="s">
+      <c r="AC37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE37" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF37" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="AC37" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD37" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF37" s="4" t="s">
+      <c r="AG37" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="AG37" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="AH37" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="2">
         <v>28</v>
@@ -4669,7 +4667,7 @@
         <v>1198</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -4696,16 +4694,16 @@
         <v>0</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U38" s="3">
         <v>0</v>
@@ -4717,48 +4715,48 @@
         <v>0</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC38" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH38" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>31</v>
@@ -4773,7 +4771,7 @@
         <v>1154</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -4800,16 +4798,16 @@
         <v>0</v>
       </c>
       <c r="Q39" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="S39" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R39" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="T39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U39" s="3">
         <v>9</v>
@@ -4821,47 +4819,47 @@
         <v>13</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y39" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB39" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE39" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="Z39" s="4" t="s">
+      <c r="AF39" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG39" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="AA39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB39" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC39" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE39" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF39" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG39" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="AH39" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E40" s="11">
         <v>38</v>
@@ -4873,7 +4871,7 @@
         <v>342</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I40" s="11">
         <v>85</v>
@@ -4900,16 +4898,16 @@
         <v>4</v>
       </c>
       <c r="Q40" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="R40" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="R40" s="12" t="s">
+      <c r="S40" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="S40" s="12" t="s">
+      <c r="T40" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="T40" s="12" t="s">
-        <v>222</v>
       </c>
       <c r="U40" s="11">
         <v>950</v>
@@ -4921,45 +4919,45 @@
         <v>1923</v>
       </c>
       <c r="X40" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y40" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="Y40" s="12" t="s">
+      <c r="Z40" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="Z40" s="12" t="s">
+      <c r="AA40" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="AA40" s="12" t="s">
+      <c r="AB40" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="AB40" s="12" t="s">
+      <c r="AC40" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="AC40" s="11" t="s">
+      <c r="AD40" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="AD40" s="12" t="s">
+      <c r="AE40" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="AE40" s="12" t="s">
+      <c r="AF40" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="AF40" s="12" t="s">
+      <c r="AG40" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="AG40" s="12" t="s">
-        <v>232</v>
       </c>
       <c r="AH40" s="23"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E41" s="27">
         <v>38</v>
@@ -4971,7 +4969,7 @@
         <v>342</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I41" s="27">
         <v>25</v>
@@ -4998,16 +4996,16 @@
         <v>0</v>
       </c>
       <c r="Q41" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="R41" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="R41" s="28" t="s">
+      <c r="S41" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="T41" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="S41" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="T41" s="28" t="s">
-        <v>237</v>
       </c>
       <c r="U41" s="27">
         <v>583</v>
@@ -5019,34 +5017,34 @@
         <v>1247</v>
       </c>
       <c r="X41" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y41" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="Y41" s="28" t="s">
+      <c r="Z41" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="Z41" s="28" t="s">
+      <c r="AA41" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB41" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="AA41" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB41" s="28" t="s">
+      <c r="AC41" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD41" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="AC41" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD41" s="28" t="s">
+      <c r="AE41" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="AE41" s="28" t="s">
+      <c r="AF41" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="AF41" s="28" t="s">
+      <c r="AG41" s="28" t="s">
         <v>244</v>
-      </c>
-      <c r="AG41" s="28" t="s">
-        <v>245</v>
       </c>
       <c r="AH41" s="29"/>
     </row>
